--- a/Metadata/Weekly Enrolment Chart Template.xlsx
+++ b/Metadata/Weekly Enrolment Chart Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mbasa.Njomane\Documents\R Projects\Stigma 2\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://desmondtutuhivre-my.sharepoint.com/personal/mbasa_njomane_hiv-research_org_za/Documents/Documents/R Projects DTHF/TB-Stigma/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71370B73-B3AA-4F54-A83D-870F010CA360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{71370B73-B3AA-4F54-A83D-870F010CA360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8A29BE-7E8B-4AF2-8ECC-72391C4485DE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B955DFE-246E-4AFE-AB8F-0FA46E66578E}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6B955DFE-246E-4AFE-AB8F-0FA46E66578E}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Clinic enrolment rate</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Follow Up 1 Completed</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -254,11 +257,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -299,6 +344,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -319,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +422,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847A6333-B04B-415A-8140-054F567221A9}">
-  <dimension ref="B5:F26"/>
+  <dimension ref="B5:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,20 +689,23 @@
     <col min="2" max="2" width="31.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,8 +721,14 @@
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -672,8 +744,14 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -689,8 +767,14 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -706,8 +790,14 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -723,8 +813,14 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -740,8 +836,14 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -757,8 +859,14 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -774,8 +882,14 @@
       <c r="F14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
@@ -791,8 +905,14 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -808,8 +928,14 @@
       <c r="F16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
@@ -825,8 +951,14 @@
       <c r="F17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
@@ -842,8 +974,14 @@
       <c r="F18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
@@ -859,8 +997,14 @@
       <c r="F19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -876,8 +1020,14 @@
       <c r="F20" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
@@ -893,8 +1043,14 @@
       <c r="F21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
@@ -910,8 +1066,14 @@
       <c r="F22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
@@ -927,8 +1089,14 @@
       <c r="F23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
@@ -944,8 +1112,14 @@
       <c r="F24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9" t="s">
         <v>22</v>
       </c>
@@ -961,8 +1135,14 @@
       <c r="F25" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -978,10 +1158,16 @@
       <c r="F26" s="12">
         <v>0</v>
       </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
